--- a/biology/Médecine/Processus_coronoïde_de_l'ulna/Processus_coronoïde_de_l'ulna.xlsx
+++ b/biology/Médecine/Processus_coronoïde_de_l'ulna/Processus_coronoïde_de_l'ulna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_corono%C3%AFde_de_l%27ulna</t>
+          <t>Processus_coronoïde_de_l'ulna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus coronoïde de l'ulna, aussi appelé apophyse coronoïde du cubitus en ancienne nomenclature anatomique, est un processus pyramidal quadrangulaire, horizontal et antérieur qui, avec l’olécrâne, constitue l’extrémité supérieure de l’ulna.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Processus_corono%C3%AFde_de_l%27ulna</t>
+          <t>Processus_coronoïde_de_l'ulna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa base est continue avec la diaphyse et très résistante.
 Son sommet est pointu en forme de bec légèrement incurvé vers le haut. Pendant la flexion de l'avant-bras, il se loge dans la fosse coronoïde de l'humérus.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Processus_corono%C3%AFde_de_l%27ulna</t>
+          <t>Processus_coronoïde_de_l'ulna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il stabilise l'articulation du coude et empêche son hyperflexion[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il stabilise l'articulation du coude et empêche son hyperflexion,.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Processus_corono%C3%AFde_de_l%27ulna</t>
+          <t>Processus_coronoïde_de_l'ulna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le processus coronoïde peut être fracturé à partir de sa facette antéro-médiale[3],[4]. Elle est rarement isolée.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le processus coronoïde peut être fracturé à partir de sa facette antéro-médiale,. Elle est rarement isolée.
 Elle peut être classée selon la classification de Regan et Morrey en fonction du niveau d'atteinte du processus :
 type 1 : extrémité du processus.
 type 2 : moitié antérieure du processus.
